--- a/pred_ohlcv/54_21/2020-01-19 DAD ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 DAD ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>-3520.946246392994</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-2912.341146392994</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>278.2752536070057</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>278.2752536070057</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-8877.295846392994</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-8874.295846392994</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-8874.295846392994</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>369.2753536070068</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-4555.948746392994</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-4555.948746392994</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-6155.783646392993</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-7497.161646392993</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-13438.30064639299</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-13433.81174639299</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-16876.07654639299</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-21309.513546393</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-20997.513546393</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-21497.513546393</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-19671.866546393</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-21497.513546393</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-21497.513546393</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-21497.513546393</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-21494.513546393</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-21494.513546393</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-21508.643546393</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-21370.726646393</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-21382.420846393</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-21170.163246393</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-35192.470146393</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-29968.85614639299</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-29968.85614639299</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-29905.61164639299</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-35994.54054639299</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-30135.75614639299</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-32335.32094639299</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-32335.32094639299</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-32332.32094639299</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-33954.99964639299</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-33954.99964639299</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-33954.99964639299</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-33954.99964639299</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-34119.99964639299</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-35303.77465991399</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-35303.77465991399</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-65733.11544215601</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-67563.26714215601</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-67563.26714215601</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-67563.26714215601</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-67560.26714215601</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-67590.26714215601</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-62983.813442156</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-62883.813442156</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-63158.813442156</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-74335.40404215601</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-73383.51744215601</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-73948.72974215601</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-73948.72974215601</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-84405.147742156</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-84407.947742156</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-84616.389542156</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-84616.389542156</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-19 DAD ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 DAD ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-3716.466246392994</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-2912.341146392994</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>278.2752536070057</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>278.2752536070057</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-8877.295846392994</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-8874.295846392994</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -678,7 +678,7 @@
         <v>369.2753536070068</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-4555.948746392994</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-15387.79184639299</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-13438.30064639299</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-13433.81174639299</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-21309.513546393</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-20997.513546393</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-21497.513546393</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-19671.866546393</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-21497.513546393</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-21497.513546393</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-21494.513546393</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-21508.643546393</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-21382.420846393</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-21170.163246393</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-35192.470146393</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-29968.85614639299</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-29968.85614639299</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-29905.61164639299</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-35994.54054639299</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-30135.75614639299</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-32335.32094639299</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-32335.32094639299</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-32332.32094639299</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-33954.99964639299</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-33954.99964639299</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-33954.99964639299</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-33954.99964639299</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-34119.99964639299</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-35303.77465991399</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-35303.77465991399</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-65733.11544215601</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-67563.26714215601</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-67563.26714215601</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-67563.26714215601</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-67560.26714215601</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-67590.26714215601</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-73383.51744215601</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-73948.72974215601</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-73948.72974215601</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-84405.147742156</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-84407.947742156</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-84616.389542156</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
